--- a/data/hotels_by_city/Denver/Denver_shard_210.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_210.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33447-d119991-Reviews-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Quality-Inn-Suites-Golden-Denver-West-Federal-Center.h12150.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,750 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r575942474-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>33447</t>
+  </si>
+  <si>
+    <t>119991</t>
+  </si>
+  <si>
+    <t>575942474</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Good for business travel</t>
+  </si>
+  <si>
+    <t>Right off the interstate.  Pool was down but not a huge deal.  Had a room on the 3rd floor.  unlike other reviews, this room was clean and neat.  Nice view of the mountains out the window.  No issues, nothing exceptional, no complaints.  Just an average hotel stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Ray A, Guest Relations Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Right off the interstate.  Pool was down but not a huge deal.  Had a room on the 3rd floor.  unlike other reviews, this room was clean and neat.  Nice view of the mountains out the window.  No issues, nothing exceptional, no complaints.  Just an average hotel stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r575273791-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>575273791</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN</t>
+  </si>
+  <si>
+    <t>The rooms are dirty!! Lamp shades have stains on them, holes in furniture, remotes are taped together. Drive way entrance was horrible to navigate. Sharing the pool with the hotel next door bc there's was down. Next to the hotel the out of business restaurant had used discarded couches in the lot. Staff seemed to live there and just used the front lobby as there own personal living room. It's sad to say I've had better experience at a motel 6!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The rooms are dirty!! Lamp shades have stains on them, holes in furniture, remotes are taped together. Drive way entrance was horrible to navigate. Sharing the pool with the hotel next door bc there's was down. Next to the hotel the out of business restaurant had used discarded couches in the lot. Staff seemed to live there and just used the front lobby as there own personal living room. It's sad to say I've had better experience at a motel 6!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r575254334-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>575254334</t>
+  </si>
+  <si>
+    <t>How are they still in business</t>
+  </si>
+  <si>
+    <t>I agree that the front desk people (non-managers) that I spoke to were very friendly, but...It is simplest just to list the problems:  First, I needed a new room apon arrival because my initial room was dirty.  Then, there were several days when housekeeping did not take the old towels, make up the bed, or take out the trash.  I had to have my key rekeyed twice during my stay after making it to my room with my arms full.  The best part was when I needed to manually turn the water off to the toilet because it was about an inch from overflowing.  There was also a stain on the floor.  Their attempt to compensate me for the difficulties were minimal.MoreShow less</t>
+  </si>
+  <si>
+    <t>I agree that the front desk people (non-managers) that I spoke to were very friendly, but...It is simplest just to list the problems:  First, I needed a new room apon arrival because my initial room was dirty.  Then, there were several days when housekeeping did not take the old towels, make up the bed, or take out the trash.  I had to have my key rekeyed twice during my stay after making it to my room with my arms full.  The best part was when I needed to manually turn the water off to the toilet because it was about an inch from overflowing.  There was also a stain on the floor.  Their attempt to compensate me for the difficulties were minimal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r542523643-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>542523643</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>The room is larger than most hotels. Great hot breakfast. Indoor pool and hot tub. The guests at this hotel are allowed to use the fitness room at the adjacent hotel. There are plenty of restaurants nearby including one on either side of the hotel. The hotel staff was very helpful addressing any questions and needs I had. Stephanie, Mark, Charlotte, Quevette and Jean were all very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Charlotte D, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>The room is larger than most hotels. Great hot breakfast. Indoor pool and hot tub. The guests at this hotel are allowed to use the fitness room at the adjacent hotel. There are plenty of restaurants nearby including one on either side of the hotel. The hotel staff was very helpful addressing any questions and needs I had. Stephanie, Mark, Charlotte, Quevette and Jean were all very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r539722254-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>539722254</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, difficult to find, excellent checkin staff</t>
+  </si>
+  <si>
+    <t>Hotel is older but well maintained.  Difficult to access due to no frontage road.  Restaurants nearby are closed so must drive to find.  Staff allowed early checkin and were friendly and accommodating in other ways esp the night shift.  Below average breakfast for this chain hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Hotel is older but well maintained.  Difficult to access due to no frontage road.  Restaurants nearby are closed so must drive to find.  Staff allowed early checkin and were friendly and accommodating in other ways esp the night shift.  Below average breakfast for this chain hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r522554743-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>522554743</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Sketchy but adequate</t>
+  </si>
+  <si>
+    <t>My first floor room was clean &amp; quiet. Toilet did not work; plugged twice during 4 day stay. There is no fitness center; treadmills &amp; bike all broken. Breakfast mostly high fat items.  Neighborhood did not feel safe for walk during darkness. $130+ per night incl tax. "Suites" are just larger rooms, not separate rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>My first floor room was clean &amp; quiet. Toilet did not work; plugged twice during 4 day stay. There is no fitness center; treadmills &amp; bike all broken. Breakfast mostly high fat items.  Neighborhood did not feel safe for walk during darkness. $130+ per night incl tax. "Suites" are just larger rooms, not separate rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r506317945-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>506317945</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Basic hotel, clean &amp; quiet but overpriced</t>
+  </si>
+  <si>
+    <t>Located just off the westbound service road of the 6th Avenue Highway. A couple of decent restaurants can be reached by a short safe walk. Shared parking lot with another hotel. Checked in quickly by friendly desk clerk. Asked for and assigned upper floor room. The room was spartanly decorated but generally clean. Bed was comfortable with the standard postage-stamp size Quality Inn pillows. I got a decent nights' sleep, my floor was, for the most part, quiet through the night. At checkout in the morning, stood with several other guests, we were all completely ignored by the desk clerk who was arguing with another guest over some refund. Left keys on counter and left. Price paid was very high for a Quality Inn far from Downtown and even farther from the Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Located just off the westbound service road of the 6th Avenue Highway. A couple of decent restaurants can be reached by a short safe walk. Shared parking lot with another hotel. Checked in quickly by friendly desk clerk. Asked for and assigned upper floor room. The room was spartanly decorated but generally clean. Bed was comfortable with the standard postage-stamp size Quality Inn pillows. I got a decent nights' sleep, my floor was, for the most part, quiet through the night. At checkout in the morning, stood with several other guests, we were all completely ignored by the desk clerk who was arguing with another guest over some refund. Left keys on counter and left. Price paid was very high for a Quality Inn far from Downtown and even farther from the Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r505512197-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>505512197</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>The room was clean enough, I guess.  There was a huge chair shoved between the bed and the window, making it difficult to get out of that side of the bed, so I tried to move it - under the chair was food.  The bathroom fan was so loud, I couldn't carry on a conversation with my children, even with the bathroom door open.  The air conditioner worked, but was so rattly and loud that we kept it mostly off.  We got in on a Friday evening, and there was only one person working.  We left a day early.  NOT worth $200 a night.  Never again, Quality Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ray A, Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The room was clean enough, I guess.  There was a huge chair shoved between the bed and the window, making it difficult to get out of that side of the bed, so I tried to move it - under the chair was food.  The bathroom fan was so loud, I couldn't carry on a conversation with my children, even with the bathroom door open.  The air conditioner worked, but was so rattly and loud that we kept it mostly off.  We got in on a Friday evening, and there was only one person working.  We left a day early.  NOT worth $200 a night.  Never again, Quality Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r503309776-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>503309776</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel </t>
+  </si>
+  <si>
+    <t>Great price, staff very nice..  good, fresh breakfast....alittle old in the hot tub pool area but was very relaxing.... Nice and clean...nice big king room with fridge, coffee and microwave.  Alittle tricky to get to... Had to go arround the block...stay in right lane getting off Highway and go straight then turn left..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r497288397-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>497288397</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Not great</t>
+  </si>
+  <si>
+    <t>Just stayed for an overnight but the sheets had some stains, lampshades were stained and we tried to make coffee with in room coffee maker and it sputtered and leaked all over the table. Beds were small and thin. Shower worked fine , but again could just use some updates. Breakfast was good. Nice area just off the highway, but I probably won't be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Ray A, Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Just stayed for an overnight but the sheets had some stains, lampshades were stained and we tried to make coffee with in room coffee maker and it sputtered and leaked all over the table. Beds were small and thin. Shower worked fine , but again could just use some updates. Breakfast was good. Nice area just off the highway, but I probably won't be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r493506504-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>493506504</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Hotel not up to Choice Hotel standards</t>
+  </si>
+  <si>
+    <t>We agree with the other commenter here.  We also love Choice Hotels, but this one does not appear to be up to Choice Hotel standands. 
+We booked this hotel for two days.  And we decided to visit the hotel in advance of our stay to check it out due to the mixed reviews at this website.  Our immediate impression was not good.  There were unsavory looking people loitering in the front premices. The hotel lobby and hallways had a very musty old smell.  The pool area looked dingy and small and looked like it was designed in the 70's; although we were told the hotel was built in the mid 90's.  We were also told there have been no renovations since the hotel was built.  
+The women behind the counter (dark hair/heavy) was not very friendly. After confirming we had a reservation in the computer and letting her know we just wanted to check out the place before staying she was not very accommodating.  She would not let us inspect a room to see if it was to our liking.  She told us there were no rooms available to view and we'd have to look at the pictures of their rooms on the internet.  We did not believe her because we'd check via the internet and it showed there were rooms available that very day.  So at that point we could only imagine that the rooms were probably as bad...We agree with the other commenter here.  We also love Choice Hotels, but this one does not appear to be up to Choice Hotel standands. We booked this hotel for two days.  And we decided to visit the hotel in advance of our stay to check it out due to the mixed reviews at this website.  Our immediate impression was not good.  There were unsavory looking people loitering in the front premices. The hotel lobby and hallways had a very musty old smell.  The pool area looked dingy and small and looked like it was designed in the 70's; although we were told the hotel was built in the mid 90's.  We were also told there have been no renovations since the hotel was built.  The women behind the counter (dark hair/heavy) was not very friendly. After confirming we had a reservation in the computer and letting her know we just wanted to check out the place before staying she was not very accommodating.  She would not let us inspect a room to see if it was to our liking.  She told us there were no rooms available to view and we'd have to look at the pictures of their rooms on the internet.  We did not believe her because we'd check via the internet and it showed there were rooms available that very day.  So at that point we could only imagine that the rooms were probably as bad (old, musty) as what we'd seen in the lobby and hall areas.      We decided to cancel our reservation at that point and look for another choice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We agree with the other commenter here.  We also love Choice Hotels, but this one does not appear to be up to Choice Hotel standands. 
+We booked this hotel for two days.  And we decided to visit the hotel in advance of our stay to check it out due to the mixed reviews at this website.  Our immediate impression was not good.  There were unsavory looking people loitering in the front premices. The hotel lobby and hallways had a very musty old smell.  The pool area looked dingy and small and looked like it was designed in the 70's; although we were told the hotel was built in the mid 90's.  We were also told there have been no renovations since the hotel was built.  
+The women behind the counter (dark hair/heavy) was not very friendly. After confirming we had a reservation in the computer and letting her know we just wanted to check out the place before staying she was not very accommodating.  She would not let us inspect a room to see if it was to our liking.  She told us there were no rooms available to view and we'd have to look at the pictures of their rooms on the internet.  We did not believe her because we'd check via the internet and it showed there were rooms available that very day.  So at that point we could only imagine that the rooms were probably as bad...We agree with the other commenter here.  We also love Choice Hotels, but this one does not appear to be up to Choice Hotel standands. We booked this hotel for two days.  And we decided to visit the hotel in advance of our stay to check it out due to the mixed reviews at this website.  Our immediate impression was not good.  There were unsavory looking people loitering in the front premices. The hotel lobby and hallways had a very musty old smell.  The pool area looked dingy and small and looked like it was designed in the 70's; although we were told the hotel was built in the mid 90's.  We were also told there have been no renovations since the hotel was built.  The women behind the counter (dark hair/heavy) was not very friendly. After confirming we had a reservation in the computer and letting her know we just wanted to check out the place before staying she was not very accommodating.  She would not let us inspect a room to see if it was to our liking.  She told us there were no rooms available to view and we'd have to look at the pictures of their rooms on the internet.  We did not believe her because we'd check via the internet and it showed there were rooms available that very day.  So at that point we could only imagine that the rooms were probably as bad (old, musty) as what we'd seen in the lobby and hall areas.      We decided to cancel our reservation at that point and look for another choice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r488451688-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>488451688</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Just Don't</t>
+  </si>
+  <si>
+    <t>I love the Choice chain and have used them for years, but this hotel does not maintain their usual standards.   It starts with the front desk, where in 2 days I never saw an attendant stand up from their chairs.  The hot tub was taped off with police tape.  The room was crappy...shades didn't close all the way, bath tub was filled with hair from prior guests, and the wallpaper had clear burn marks on it.  Asked when breakfast closed and they said 10:30, got their at 9:45..some eggs and sausage were left, but no fruit, no milk for cereal and fridge was empty.  This is probably my 100th+ stay at this chain and it was by far the worst I have experienced. Neighborhood is also a bit scary, local restaurants are shuttered and closed for 'unknown ' reasons and lots of folks just sitting around the parking lot area smoking and drinking.  Just a weird vibe and I would not have felt safe if my kids were with me on this trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Ray A, Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>I love the Choice chain and have used them for years, but this hotel does not maintain their usual standards.   It starts with the front desk, where in 2 days I never saw an attendant stand up from their chairs.  The hot tub was taped off with police tape.  The room was crappy...shades didn't close all the way, bath tub was filled with hair from prior guests, and the wallpaper had clear burn marks on it.  Asked when breakfast closed and they said 10:30, got their at 9:45..some eggs and sausage were left, but no fruit, no milk for cereal and fridge was empty.  This is probably my 100th+ stay at this chain and it was by far the worst I have experienced. Neighborhood is also a bit scary, local restaurants are shuttered and closed for 'unknown ' reasons and lots of folks just sitting around the parking lot area smoking and drinking.  Just a weird vibe and I would not have felt safe if my kids were with me on this trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r458242126-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>458242126</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Great stop over on the way to  Summit County</t>
+  </si>
+  <si>
+    <t>Great place to stay after a late night arrival in Denver on our way to Copper Mountain the next day.  Almost one hour from the airport, just off Rt I70.  A modern hotel with clean room and bath.  A nice breakfast in the morning.  Friendly staff.  We would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Ray A, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded February 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2017</t>
+  </si>
+  <si>
+    <t>Great place to stay after a late night arrival in Denver on our way to Copper Mountain the next day.  Almost one hour from the airport, just off Rt I70.  A modern hotel with clean room and bath.  A nice breakfast in the morning.  Friendly staff.  We would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r451494472-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>451494472</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>5 week guest (!) at this completely solid budget hotel with a wonderfully warm staff.  = )</t>
+  </si>
+  <si>
+    <t>While waiting for a for my foreign traveler's visa to be processed, I was unexpectedly a long term guest at this hotel in December and January for 5 weeks. I really liked staying here because:1. The staff is really nice and professional, genuinely caring and customer-service oriented. I have to give a shout out to Jamie, Stephanie and Michelle who made my stay so lovely.2. Totally solid breakfast included.3. Rock solid housekeeping team.4. Property well-managed.I've spent an unusual amount of time in hotels in my 51 years. I know a good one. This is a good spot. Oh, and a CONVENIENT location.  = )MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Ray A, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded January 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2017</t>
+  </si>
+  <si>
+    <t>While waiting for a for my foreign traveler's visa to be processed, I was unexpectedly a long term guest at this hotel in December and January for 5 weeks. I really liked staying here because:1. The staff is really nice and professional, genuinely caring and customer-service oriented. I have to give a shout out to Jamie, Stephanie and Michelle who made my stay so lovely.2. Totally solid breakfast included.3. Rock solid housekeeping team.4. Property well-managed.I've spent an unusual amount of time in hotels in my 51 years. I know a good one. This is a good spot. Oh, and a CONVENIENT location.  = )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r427385904-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>427385904</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Nice, quiet place to stay</t>
+  </si>
+  <si>
+    <t>This was a nice and quiet place to stay at, even though we did not spend much time besides resting there.  We were there for a weekend conference.  Good free breakfast, but it did get crowded during peak times.  Rooms were clean and quiet.  We did not use the indoor pool, but walking by it, it did smell heavily of chlorine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ray A, Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2017</t>
+  </si>
+  <si>
+    <t>This was a nice and quiet place to stay at, even though we did not spend much time besides resting there.  We were there for a weekend conference.  Good free breakfast, but it did get crowded during peak times.  Rooms were clean and quiet.  We did not use the indoor pool, but walking by it, it did smell heavily of chlorine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r411969605-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>411969605</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Better management required</t>
+  </si>
+  <si>
+    <t>While visiting our family in Denver, we usually stay on Union Blvd in Lakewood, but vacancies were scarce this time.  We were grateful to book the Quality Inn &amp; Suites (Golden) this time around. It is just the other side of Federal Highway 6.  The location is not nearly as convenient for access, nor is it within walking distance to a variety of restaurants, but it was fine for a one night stay. Yes, our room was clean and adequate and the breakfast sufficient, but we experienced  major issues with both check-in and check-out. [Details: Upon arriving, we were assigned a room key, only to discover the door open and a worker’s ladder in the room.  Without apology, we were re-assigned another room. (Employee need better training,) Then in the morning, there was check-out.  When we arrived at the desk there were two other parties already waiting but no one to check them out.  After about 5-10 minutes and additional guests in line, we inquired of hotel personnel if there was anyone available.  “Oh, he’s at the other hotel,”  (which we assume was the Fairfield Inn adjoined to the parking lot.)  Eventually, he arrived at our hotel desk and began providing service.  This seems very odd that in the morning hours there was only one person to assist guests with checkout for two different hotels.] I’m not criticizing the overworked employee, but there is a serious management problem here.   With...While visiting our family in Denver, we usually stay on Union Blvd in Lakewood, but vacancies were scarce this time.  We were grateful to book the Quality Inn &amp; Suites (Golden) this time around. It is just the other side of Federal Highway 6.  The location is not nearly as convenient for access, nor is it within walking distance to a variety of restaurants, but it was fine for a one night stay. Yes, our room was clean and adequate and the breakfast sufficient, but we experienced  major issues with both check-in and check-out. [Details: Upon arriving, we were assigned a room key, only to discover the door open and a worker’s ladder in the room.  Without apology, we were re-assigned another room. (Employee need better training,) Then in the morning, there was check-out.  When we arrived at the desk there were two other parties already waiting but no one to check them out.  After about 5-10 minutes and additional guests in line, we inquired of hotel personnel if there was anyone available.  “Oh, he’s at the other hotel,”  (which we assume was the Fairfield Inn adjoined to the parking lot.)  Eventually, he arrived at our hotel desk and began providing service.  This seems very odd that in the morning hours there was only one person to assist guests with checkout for two different hotels.] I’m not criticizing the overworked employee, but there is a serious management problem here.   With other facilities to choose from, I’m not sure the Quality Inn will be my choice in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>ScottLeischner, Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>While visiting our family in Denver, we usually stay on Union Blvd in Lakewood, but vacancies were scarce this time.  We were grateful to book the Quality Inn &amp; Suites (Golden) this time around. It is just the other side of Federal Highway 6.  The location is not nearly as convenient for access, nor is it within walking distance to a variety of restaurants, but it was fine for a one night stay. Yes, our room was clean and adequate and the breakfast sufficient, but we experienced  major issues with both check-in and check-out. [Details: Upon arriving, we were assigned a room key, only to discover the door open and a worker’s ladder in the room.  Without apology, we were re-assigned another room. (Employee need better training,) Then in the morning, there was check-out.  When we arrived at the desk there were two other parties already waiting but no one to check them out.  After about 5-10 minutes and additional guests in line, we inquired of hotel personnel if there was anyone available.  “Oh, he’s at the other hotel,”  (which we assume was the Fairfield Inn adjoined to the parking lot.)  Eventually, he arrived at our hotel desk and began providing service.  This seems very odd that in the morning hours there was only one person to assist guests with checkout for two different hotels.] I’m not criticizing the overworked employee, but there is a serious management problem here.   With...While visiting our family in Denver, we usually stay on Union Blvd in Lakewood, but vacancies were scarce this time.  We were grateful to book the Quality Inn &amp; Suites (Golden) this time around. It is just the other side of Federal Highway 6.  The location is not nearly as convenient for access, nor is it within walking distance to a variety of restaurants, but it was fine for a one night stay. Yes, our room was clean and adequate and the breakfast sufficient, but we experienced  major issues with both check-in and check-out. [Details: Upon arriving, we were assigned a room key, only to discover the door open and a worker’s ladder in the room.  Without apology, we were re-assigned another room. (Employee need better training,) Then in the morning, there was check-out.  When we arrived at the desk there were two other parties already waiting but no one to check them out.  After about 5-10 minutes and additional guests in line, we inquired of hotel personnel if there was anyone available.  “Oh, he’s at the other hotel,”  (which we assume was the Fairfield Inn adjoined to the parking lot.)  Eventually, he arrived at our hotel desk and began providing service.  This seems very odd that in the morning hours there was only one person to assist guests with checkout for two different hotels.] I’m not criticizing the overworked employee, but there is a serious management problem here.   With other facilities to choose from, I’m not sure the Quality Inn will be my choice in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r380648418-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>380648418</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>The "Unquality" Inn</t>
+  </si>
+  <si>
+    <t>We stayed here the past week for a family reunion.  We were given a pick of rooms and the end of the hall was quiet until the maids came.  They had loud,  animated conversations near our room that would have woken us up if we weren't early risers.  The chair and ottoman were stained and disgusting!!!  After that, I avoided sitting in them.  They didn't vacuum our entire stay and the bathroom tub was moldy.  Each evening when we returned, I had to go to the front desk and ask for more towels even though we had two queen beds and 4 suitcases in the room.  One evening, the staff made a note to give us more towels, but the next day was no different. One morning, we had breakfast at 9:30 (they stop serving at 10) and they didn't restock.  The gravy was gone and just a few eggs and sausages were left.  I felt sorry for the crowd that came afterward since we ate what was left.  I would not recommend staying in this hotel.  We paid waaay too much for our unclean room!MoreShow less</t>
+  </si>
+  <si>
+    <t>ScottLeischner, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here the past week for a family reunion.  We were given a pick of rooms and the end of the hall was quiet until the maids came.  They had loud,  animated conversations near our room that would have woken us up if we weren't early risers.  The chair and ottoman were stained and disgusting!!!  After that, I avoided sitting in them.  They didn't vacuum our entire stay and the bathroom tub was moldy.  Each evening when we returned, I had to go to the front desk and ask for more towels even though we had two queen beds and 4 suitcases in the room.  One evening, the staff made a note to give us more towels, but the next day was no different. One morning, we had breakfast at 9:30 (they stop serving at 10) and they didn't restock.  The gravy was gone and just a few eggs and sausages were left.  I felt sorry for the crowd that came afterward since we ate what was left.  I would not recommend staying in this hotel.  We paid waaay too much for our unclean room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r374044444-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>374044444</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Quick trip to Denver</t>
+  </si>
+  <si>
+    <t>I was in town for less than 24 hours helping my son move home from college for the summer.  I got this room at no charge with Choice Hotels points.  The room was ready when I arrived and clean.  Breakfast was as expected.  Hotel was reasonably convenient to where I needed to be and very easy to access off a main highway.  It is not a luxury hotel, but an excellent option for a more budget minded traveler.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I was in town for less than 24 hours helping my son move home from college for the summer.  I got this room at no charge with Choice Hotels points.  The room was ready when I arrived and clean.  Breakfast was as expected.  Hotel was reasonably convenient to where I needed to be and very easy to access off a main highway.  It is not a luxury hotel, but an excellent option for a more budget minded traveler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r363040521-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>363040521</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Not what I expected for a Choice Hotel.</t>
+  </si>
+  <si>
+    <t>Staff was friendly when we checked in and reservation showed 3, we get in the room &amp; there are only 2 towels so I have to go to the front desk to get more towels. The shelf for towels above the toilet was bent and coming away from the wall. The curved sober rod that is supposed to go out was going down and when I tried to move it, it was also coming away from the wall. We pull out the hideaway for the daughter&amp; no sheets. Back to the front desk for sheets. Breakfast was just ok and they ran out of coffee after the staff all got some. Left for the day and when we returned after they cleaned we found they only left 2 towels again, back to the front desk. I'm a gold member,almost platinum&amp;this by far the worst of the choice hotel s I've stayed at. Will probably not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>ScottLeischner, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Staff was friendly when we checked in and reservation showed 3, we get in the room &amp; there are only 2 towels so I have to go to the front desk to get more towels. The shelf for towels above the toilet was bent and coming away from the wall. The curved sober rod that is supposed to go out was going down and when I tried to move it, it was also coming away from the wall. We pull out the hideaway for the daughter&amp; no sheets. Back to the front desk for sheets. Breakfast was just ok and they ran out of coffee after the staff all got some. Left for the day and when we returned after they cleaned we found they only left 2 towels again, back to the front desk. I'm a gold member,almost platinum&amp;this by far the worst of the choice hotel s I've stayed at. Will probably not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r360783083-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>360783083</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>If you are not looking for a Ritz Hotel this is perfect</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 nights,Sun. thru Th. I thought it was great! I did a lot of research before hand, and picked this place. The price and location was great for my needs. It is tucked away near 6th Avenue, one of the Highways  that gets you to downtown Denver or the Mountains. It is close to the light rail too. For those hearty enough, you could walk to the  light rail station.I did read one review that said it is tricky to get into, it is unless you Google it and find the easier way to get in, thru a neighborhood. 
+From Simms you just go to 8th, turn West, then turn left on Vivian, then a left on 7th, after the house with a flag and after the speed bump! Just follow the road and you will get there. Simm's Landing is near there and right in the parking lot is a Lonestar Steakhouse and another restaurant right next door. Up and down Simm's/Union there are many  good restaurants to choose from. As for the hotel in general, the staff was nothing but the best, so friendly, each and everyone of them, The continental breakfast was very good, with a lot of choices.The gal working there was so friendly. The place always smelled so good, the kind of smell that you go, yum. The bed was so comfy and the pillows! I always take my own pillows...I stayed here for 5 nights,Sun. thru Th. I thought it was great! I did a lot of research before hand, and picked this place. The price and location was great for my needs. It is tucked away near 6th Avenue, one of the Highways  that gets you to downtown Denver or the Mountains. It is close to the light rail too. For those hearty enough, you could walk to the  light rail station.I did read one review that said it is tricky to get into, it is unless you Google it and find the easier way to get in, thru a neighborhood. From Simms you just go to 8th, turn West, then turn left on Vivian, then a left on 7th, after the house with a flag and after the speed bump! Just follow the road and you will get there. Simm's Landing is near there and right in the parking lot is a Lonestar Steakhouse and another restaurant right next door. Up and down Simm's/Union there are many  good restaurants to choose from. As for the hotel in general, the staff was nothing but the best, so friendly, each and everyone of them, The continental breakfast was very good, with a lot of choices.The gal working there was so friendly. The place always smelled so good, the kind of smell that you go, yum. The bed was so comfy and the pillows! I always take my own pillows but I wouldn't have had too, there were plenty and very comfy. They tucked the ends in on the pillowcases in, the maids would tuck mine in too! The fridge is fairly spacious with the microwave above it, while the microwave was a bit dated, it worked and the whole unit was a bit wobbling, but who cares. I thought the shower was great, plenty of hot water and great pressure. The bathroom was spacious. Are the towels thin, well yeah, but who cares, they were clean and smelled good. The heating/cooling unit was great, you could set it for continuous fan, which I loved because I sleep with a fan when I am home. It was quiet, probably one if the quietest hotels I have ever been in, none of that loud door slams at 5am. Did I hear a bit of noise above me, sure, but it was like being at home, dogs, my daughter tromping around early. The pool looked very nice. but I didn't use it. I was in a room close by, while I could hear the fun going on in the hall, once I got in my room, I didn't anymore. Parking is great. For smoker's, it is non smoking, but I did okay. It was cold and raining/snowing most of the time I was there and did think, they need a special heated place for smoker's, but then I thought okay, this is okay and I smoked less! Most important out of all of this, as a single women traveling, I felt safe, It was very clean, friendly and such an easy access to anywhere you would want to go in the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>ScottLeischner, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded April 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 nights,Sun. thru Th. I thought it was great! I did a lot of research before hand, and picked this place. The price and location was great for my needs. It is tucked away near 6th Avenue, one of the Highways  that gets you to downtown Denver or the Mountains. It is close to the light rail too. For those hearty enough, you could walk to the  light rail station.I did read one review that said it is tricky to get into, it is unless you Google it and find the easier way to get in, thru a neighborhood. 
+From Simms you just go to 8th, turn West, then turn left on Vivian, then a left on 7th, after the house with a flag and after the speed bump! Just follow the road and you will get there. Simm's Landing is near there and right in the parking lot is a Lonestar Steakhouse and another restaurant right next door. Up and down Simm's/Union there are many  good restaurants to choose from. As for the hotel in general, the staff was nothing but the best, so friendly, each and everyone of them, The continental breakfast was very good, with a lot of choices.The gal working there was so friendly. The place always smelled so good, the kind of smell that you go, yum. The bed was so comfy and the pillows! I always take my own pillows...I stayed here for 5 nights,Sun. thru Th. I thought it was great! I did a lot of research before hand, and picked this place. The price and location was great for my needs. It is tucked away near 6th Avenue, one of the Highways  that gets you to downtown Denver or the Mountains. It is close to the light rail too. For those hearty enough, you could walk to the  light rail station.I did read one review that said it is tricky to get into, it is unless you Google it and find the easier way to get in, thru a neighborhood. From Simms you just go to 8th, turn West, then turn left on Vivian, then a left on 7th, after the house with a flag and after the speed bump! Just follow the road and you will get there. Simm's Landing is near there and right in the parking lot is a Lonestar Steakhouse and another restaurant right next door. Up and down Simm's/Union there are many  good restaurants to choose from. As for the hotel in general, the staff was nothing but the best, so friendly, each and everyone of them, The continental breakfast was very good, with a lot of choices.The gal working there was so friendly. The place always smelled so good, the kind of smell that you go, yum. The bed was so comfy and the pillows! I always take my own pillows but I wouldn't have had too, there were plenty and very comfy. They tucked the ends in on the pillowcases in, the maids would tuck mine in too! The fridge is fairly spacious with the microwave above it, while the microwave was a bit dated, it worked and the whole unit was a bit wobbling, but who cares. I thought the shower was great, plenty of hot water and great pressure. The bathroom was spacious. Are the towels thin, well yeah, but who cares, they were clean and smelled good. The heating/cooling unit was great, you could set it for continuous fan, which I loved because I sleep with a fan when I am home. It was quiet, probably one if the quietest hotels I have ever been in, none of that loud door slams at 5am. Did I hear a bit of noise above me, sure, but it was like being at home, dogs, my daughter tromping around early. The pool looked very nice. but I didn't use it. I was in a room close by, while I could hear the fun going on in the hall, once I got in my room, I didn't anymore. Parking is great. For smoker's, it is non smoking, but I did okay. It was cold and raining/snowing most of the time I was there and did think, they need a special heated place for smoker's, but then I thought okay, this is okay and I smoked less! Most important out of all of this, as a single women traveling, I felt safe, It was very clean, friendly and such an easy access to anywhere you would want to go in the Denver area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r357289813-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>357289813</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Completely average stay......a good thing!</t>
+  </si>
+  <si>
+    <t>We spend a single night after meeting friends downtown while enroute to Breckenridge.  The stay was completely average.....nothing bad and nothing super good to right home about!  Sometimes you just need a place to crash for the night without any fanfare or issues and this QI delivered.  Location was perfect for departure the next morning towards the ski slopes to the west.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spend a single night after meeting friends downtown while enroute to Breckenridge.  The stay was completely average.....nothing bad and nothing super good to right home about!  Sometimes you just need a place to crash for the night without any fanfare or issues and this QI delivered.  Location was perfect for departure the next morning towards the ski slopes to the west.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r305495476-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>305495476</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable. The location was good. The breakfast was great. The staff was very friendly. There was also a pool, which we didn't use. Located by a good steakhouse. Snack and drink machines.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable. The location was good. The breakfast was great. The staff was very friendly. There was also a pool, which we didn't use. Located by a good steakhouse. Snack and drink machines.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r294272448-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>294272448</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>DO NOT TAKE SHUTTLE</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of how close it is to Red Rocks Ampitheatre, and because they offer a shuttle to and from whichever show you're seeing. Unfortunately, their shuttle service is AWFUL. The first night we signed up the only instruction the desk clerk gave us was to be outside waiting a little early. At exactly 5:30, the time they told us the shuttle would arrive, a white van with the word "shuttle" on it pulled up. A man stepped out, asked us all if we were waiting for the shuttle, and took our money. It wasn't until we were halfway to the ampitheatre that the man explained to us that he wasn't employed by the hotel and that we needed to find our own way back after the concert. I immediately called our hotel and informed the lady at the desk about what had happened. She was apologetic and promised to call us back with instructions on how to locate the shuttle that would take us back so we wouldn't be stranded after the show. She never called though. After the concert I called the hotel once more and explained the situation, and they were anything but helpful. They explained to me that they had no idea who was driving THEIR ACTUAL shuttle that night. It took them ten minutes to find and give us the driver's phone number, and when we did call him he was...We stayed at this hotel because of how close it is to Red Rocks Ampitheatre, and because they offer a shuttle to and from whichever show you're seeing. Unfortunately, their shuttle service is AWFUL. The first night we signed up the only instruction the desk clerk gave us was to be outside waiting a little early. At exactly 5:30, the time they told us the shuttle would arrive, a white van with the word "shuttle" on it pulled up. A man stepped out, asked us all if we were waiting for the shuttle, and took our money. It wasn't until we were halfway to the ampitheatre that the man explained to us that he wasn't employed by the hotel and that we needed to find our own way back after the concert. I immediately called our hotel and informed the lady at the desk about what had happened. She was apologetic and promised to call us back with instructions on how to locate the shuttle that would take us back so we wouldn't be stranded after the show. She never called though. After the concert I called the hotel once more and explained the situation, and they were anything but helpful. They explained to me that they had no idea who was driving THEIR ACTUAL shuttle that night. It took them ten minutes to find and give us the driver's phone number, and when we did call him he was extremely rude, and could not give us clear directions on how to find him. We eventually gave up and found a taxi. The next night the shuttle was on time, and the ride there was perfectly fine. When the show was over we went directly to where the driver told us to meet and he was no where to be found. We called him and he impaitently asked us where we were. I guess we were supposed to magically know that he had changed the meeting place. When we got there the shuttle was entirely full, so he had us sit in the very back of the van on the floor. We had to sit nearly on top of each other with our knees pulled up to our chests just to fit and we are both very small people. He was so determined to only make one trip back to the hotel, even though it took him three trips to get us all to the ampitheatre, that when two more people showed up he had them sit on the floor in the front of the van. If the shuttle had been free, i wouldn't be so quick to complain, but when we all paid twenty dollars for a seat on that shuttle, we expected to sit in a seat. As for the hotel, our room was mostly clean, except for a couple of blue stains on the bed sheets. We never heard noise from any of the neighbors, and the pool was a pretty good temperature. It's just not a very professional place overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded July 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of how close it is to Red Rocks Ampitheatre, and because they offer a shuttle to and from whichever show you're seeing. Unfortunately, their shuttle service is AWFUL. The first night we signed up the only instruction the desk clerk gave us was to be outside waiting a little early. At exactly 5:30, the time they told us the shuttle would arrive, a white van with the word "shuttle" on it pulled up. A man stepped out, asked us all if we were waiting for the shuttle, and took our money. It wasn't until we were halfway to the ampitheatre that the man explained to us that he wasn't employed by the hotel and that we needed to find our own way back after the concert. I immediately called our hotel and informed the lady at the desk about what had happened. She was apologetic and promised to call us back with instructions on how to locate the shuttle that would take us back so we wouldn't be stranded after the show. She never called though. After the concert I called the hotel once more and explained the situation, and they were anything but helpful. They explained to me that they had no idea who was driving THEIR ACTUAL shuttle that night. It took them ten minutes to find and give us the driver's phone number, and when we did call him he was...We stayed at this hotel because of how close it is to Red Rocks Ampitheatre, and because they offer a shuttle to and from whichever show you're seeing. Unfortunately, their shuttle service is AWFUL. The first night we signed up the only instruction the desk clerk gave us was to be outside waiting a little early. At exactly 5:30, the time they told us the shuttle would arrive, a white van with the word "shuttle" on it pulled up. A man stepped out, asked us all if we were waiting for the shuttle, and took our money. It wasn't until we were halfway to the ampitheatre that the man explained to us that he wasn't employed by the hotel and that we needed to find our own way back after the concert. I immediately called our hotel and informed the lady at the desk about what had happened. She was apologetic and promised to call us back with instructions on how to locate the shuttle that would take us back so we wouldn't be stranded after the show. She never called though. After the concert I called the hotel once more and explained the situation, and they were anything but helpful. They explained to me that they had no idea who was driving THEIR ACTUAL shuttle that night. It took them ten minutes to find and give us the driver's phone number, and when we did call him he was extremely rude, and could not give us clear directions on how to find him. We eventually gave up and found a taxi. The next night the shuttle was on time, and the ride there was perfectly fine. When the show was over we went directly to where the driver told us to meet and he was no where to be found. We called him and he impaitently asked us where we were. I guess we were supposed to magically know that he had changed the meeting place. When we got there the shuttle was entirely full, so he had us sit in the very back of the van on the floor. We had to sit nearly on top of each other with our knees pulled up to our chests just to fit and we are both very small people. He was so determined to only make one trip back to the hotel, even though it took him three trips to get us all to the ampitheatre, that when two more people showed up he had them sit on the floor in the front of the van. If the shuttle had been free, i wouldn't be so quick to complain, but when we all paid twenty dollars for a seat on that shuttle, we expected to sit in a seat. As for the hotel, our room was mostly clean, except for a couple of blue stains on the bed sheets. We never heard noise from any of the neighbors, and the pool was a pretty good temperature. It's just not a very professional place overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r277307111-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>277307111</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>IF YOU WANT A SATISFIED STAY DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>The night manager is Very Rude and Inconsideration. They do not respect their guests. The noise level is very high, a very busy highway right outside your room. The rooms are Over Priced for the service you receive.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded June 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2015</t>
+  </si>
+  <si>
+    <t>The night manager is Very Rude and Inconsideration. They do not respect their guests. The noise level is very high, a very busy highway right outside your room. The rooms are Over Priced for the service you receive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r260458065-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>260458065</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Amazing customer service!!!!!</t>
+  </si>
+  <si>
+    <t>My sister and I were at this hotel for a week. Amar,Herman,Stephanie,Brittany and the sweet Young Lady that made breakfast great everyday (sorry I didn't get a chance to get her name) and ALL the House keepers were so wonderful we were in Colorado from different states to see our Mom before she died they made it bearable. Even though the hotel was undergoing minor construction at the time it never interfered or disrupted our stay. Thank y'all again for all you kindness and amazing customer service!!!!!   Sincerely, Tina and TammyMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>My sister and I were at this hotel for a week. Amar,Herman,Stephanie,Brittany and the sweet Young Lady that made breakfast great everyday (sorry I didn't get a chance to get her name) and ALL the House keepers were so wonderful we were in Colorado from different states to see our Mom before she died they made it bearable. Even though the hotel was undergoing minor construction at the time it never interfered or disrupted our stay. Thank y'all again for all you kindness and amazing customer service!!!!!   Sincerely, Tina and TammyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r257141544-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>257141544</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>It is ok for a last minute desperate place to stay</t>
+  </si>
+  <si>
+    <t>The breakfast was miserable, eating area small and place was under construction when there so they had room number signs on the doors taped.  The hotel is older and had to turn the AC unit off because it was too warm in the room or too cold.  I elected to put more clothes on.Old run down hotel that I assume they are trying to fix, but I'm not sure it will help.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>The breakfast was miserable, eating area small and place was under construction when there so they had room number signs on the doors taped.  The hotel is older and had to turn the AC unit off because it was too warm in the room or too cold.  I elected to put more clothes on.Old run down hotel that I assume they are trying to fix, but I'm not sure it will help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r254976206-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>254976206</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>We booked this hotel online because of vicinity to family. We had a terrible experience there and made a point to bring the problems up to the general manager as well as the owner. We were passed on to head housekeeping to tell her what needed to be done. When you own a business, that is your responsibility and not mine as a guest. They offered us a free room if we are there again. That is not enticing enough to come back. Some of the issues were, when we checked in we were sent to a room that was occupied. When we were going to our next room with the hotel clerk someone exited from a room and the clerk asked "is there someone in room --?". The man he asked was not in a uniform or wearing a name tag. When we were in the room the remote did not work and the man who the clerk spoke to in the hallway was the one who brought the remote to the room. Strange! Also both days we were there the hallways reeked of marijuana. Also there was a large bag of trash at the end of the hallway in the evening by our room and dirty wet towels in the stairwell at night. Both of these were removed when I complained to the night clerk the second evening. Both times we visited the pool there were no clean...We booked this hotel online because of vicinity to family. We had a terrible experience there and made a point to bring the problems up to the general manager as well as the owner. We were passed on to head housekeeping to tell her what needed to be done. When you own a business, that is your responsibility and not mine as a guest. They offered us a free room if we are there again. That is not enticing enough to come back. Some of the issues were, when we checked in we were sent to a room that was occupied. When we were going to our next room with the hotel clerk someone exited from a room and the clerk asked "is there someone in room --?". The man he asked was not in a uniform or wearing a name tag. When we were in the room the remote did not work and the man who the clerk spoke to in the hallway was the one who brought the remote to the room. Strange! Also both days we were there the hallways reeked of marijuana. Also there was a large bag of trash at the end of the hallway in the evening by our room and dirty wet towels in the stairwell at night. Both of these were removed when I complained to the night clerk the second evening. Both times we visited the pool there were no clean towels only a basket of wet used ones. Also the floor in the room was dirty when we came and even after cleaning the second day it was still dirty and housekeeping left cleaning cloths in our room. Very disappointing stay and disappointing conversation with the manager as well as the owner. Most times I would not post on the internet, but it was so bad I thought at least people could feel they had been forewarned about the experience they may have at this establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked this hotel online because of vicinity to family. We had a terrible experience there and made a point to bring the problems up to the general manager as well as the owner. We were passed on to head housekeeping to tell her what needed to be done. When you own a business, that is your responsibility and not mine as a guest. They offered us a free room if we are there again. That is not enticing enough to come back. Some of the issues were, when we checked in we were sent to a room that was occupied. When we were going to our next room with the hotel clerk someone exited from a room and the clerk asked "is there someone in room --?". The man he asked was not in a uniform or wearing a name tag. When we were in the room the remote did not work and the man who the clerk spoke to in the hallway was the one who brought the remote to the room. Strange! Also both days we were there the hallways reeked of marijuana. Also there was a large bag of trash at the end of the hallway in the evening by our room and dirty wet towels in the stairwell at night. Both of these were removed when I complained to the night clerk the second evening. Both times we visited the pool there were no clean...We booked this hotel online because of vicinity to family. We had a terrible experience there and made a point to bring the problems up to the general manager as well as the owner. We were passed on to head housekeeping to tell her what needed to be done. When you own a business, that is your responsibility and not mine as a guest. They offered us a free room if we are there again. That is not enticing enough to come back. Some of the issues were, when we checked in we were sent to a room that was occupied. When we were going to our next room with the hotel clerk someone exited from a room and the clerk asked "is there someone in room --?". The man he asked was not in a uniform or wearing a name tag. When we were in the room the remote did not work and the man who the clerk spoke to in the hallway was the one who brought the remote to the room. Strange! Also both days we were there the hallways reeked of marijuana. Also there was a large bag of trash at the end of the hallway in the evening by our room and dirty wet towels in the stairwell at night. Both of these were removed when I complained to the night clerk the second evening. Both times we visited the pool there were no clean towels only a basket of wet used ones. Also the floor in the room was dirty when we came and even after cleaning the second day it was still dirty and housekeeping left cleaning cloths in our room. Very disappointing stay and disappointing conversation with the manager as well as the owner. Most times I would not post on the internet, but it was so bad I thought at least people could feel they had been forewarned about the experience they may have at this establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r224143569-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>224143569</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>friendly + convenient to Red Rocks</t>
+  </si>
+  <si>
+    <t>great hotel if you are going to a show red rocks as they have a shuttle service for $20 - extremely handy!! Hotel itself is clean + tidy and the staff were very helpful + friendly. walking distance to trains (or the shuttle can drop you to them) if you wish to go to LoDo area etcMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>great hotel if you are going to a show red rocks as they have a shuttle service for $20 - extremely handy!! Hotel itself is clean + tidy and the staff were very helpful + friendly. walking distance to trains (or the shuttle can drop you to them) if you wish to go to LoDo area etcMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r211120733-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>211120733</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get what you pay for </t>
+  </si>
+  <si>
+    <t>I had booked this hotel for a birthday trip with my boyfriend, through travelocity for a really great rate... However, after the experience we had at this place I would have spent the extra money to avoid this place. The first room they put us in was COMPLETELY dirty from the previous guest... No joke. We went to inform the front desk, and the girl put us in a different room, we get to the new room, and of course she didn't change our keys from the first room, so we had to go back down, get the correct key for the correct room, we walk back up to the room, what do ya know? The battery in the lock is dead and won't read the new, correct key. We had to go back down to the front desk for the 3rd time, and try a new room, that's 3 rooms. We get to our NEW room, get in, and the phone and TV didn't work. At this point, I'm really fed up.  The girl at the front desk offered to move us to a different room, AGAIN. That's 4 rooms, and 1 hour just trying to get settled. I tried to contact a manager at 3pm the day we checked in, and couldn't get a hold of one the entire time we stayed. I don't know how this hotel is still in business. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2014</t>
+  </si>
+  <si>
+    <t>I had booked this hotel for a birthday trip with my boyfriend, through travelocity for a really great rate... However, after the experience we had at this place I would have spent the extra money to avoid this place. The first room they put us in was COMPLETELY dirty from the previous guest... No joke. We went to inform the front desk, and the girl put us in a different room, we get to the new room, and of course she didn't change our keys from the first room, so we had to go back down, get the correct key for the correct room, we walk back up to the room, what do ya know? The battery in the lock is dead and won't read the new, correct key. We had to go back down to the front desk for the 3rd time, and try a new room, that's 3 rooms. We get to our NEW room, get in, and the phone and TV didn't work. At this point, I'm really fed up.  The girl at the front desk offered to move us to a different room, AGAIN. That's 4 rooms, and 1 hour just trying to get settled. I tried to contact a manager at 3pm the day we checked in, and couldn't get a hold of one the entire time we stayed. I don't know how this hotel is still in business. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r198067182-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>198067182</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>Quality Review</t>
+  </si>
+  <si>
+    <t>The staff is great.....we stay here every month as my spouse is in the Army Reserves and has drill in Denver each month.  We get a great military rate.  The hotel includes an indoor pool and a good breakfast variety.  The rooms are neat and comfortable.  This past weekend there was construction in the breakfast area, but we were able to go to the hotel next door for the same breakfast selection.  The hot tub was not working but was told that would be fixed soon as well as the new breakfast area.  I want to especially mention Marie at the front desk who made sure we received the best/same military rate we have been getting.  She is relocating to the Quality Inn in Boulder, CO.  I also want to mention Char, the breakfast attendant.  She always has a smile on her face and is most accommodating.  We look forward to seeing her each month.  This past weekend she helped at the hotel next door because of the construction.  She was unfortunately verbally attacked by a guest at this hotel.  It was embarrassing and this guest was completely out of line!  She and another complained because the hot items were not out quickly enough to their liking.  Char and the other attendant were working as quickly as possible and considering they were serving guests of 2 hotels they did an amazing job!  Also, the ones complaining are the ones who...The staff is great.....we stay here every month as my spouse is in the Army Reserves and has drill in Denver each month.  We get a great military rate.  The hotel includes an indoor pool and a good breakfast variety.  The rooms are neat and comfortable.  This past weekend there was construction in the breakfast area, but we were able to go to the hotel next door for the same breakfast selection.  The hot tub was not working but was told that would be fixed soon as well as the new breakfast area.  I want to especially mention Marie at the front desk who made sure we received the best/same military rate we have been getting.  She is relocating to the Quality Inn in Boulder, CO.  I also want to mention Char, the breakfast attendant.  She always has a smile on her face and is most accommodating.  We look forward to seeing her each month.  This past weekend she helped at the hotel next door because of the construction.  She was unfortunately verbally attacked by a guest at this hotel.  It was embarrassing and this guest was completely out of line!  She and another complained because the hot items were not out quickly enough to their liking.  Char and the other attendant were working as quickly as possible and considering they were serving guests of 2 hotels they did an amazing job!  Also, the ones complaining are the ones who would overload their plates, not considering other guests and knowing they could eat as much as they want!  It was horrible and I feel for anyone that has/lhad to deal with these types.  Oh, this one in particular could not even take the time to dress properly....she was in her pajamas!  Char remained polite and calm.  Almost everyone else who saw this immediately went to Char and encouraged her and hugged her.  This is not typical in my experience of the guests at Quality Inn.  This is a great hotel and great price!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>The staff is great.....we stay here every month as my spouse is in the Army Reserves and has drill in Denver each month.  We get a great military rate.  The hotel includes an indoor pool and a good breakfast variety.  The rooms are neat and comfortable.  This past weekend there was construction in the breakfast area, but we were able to go to the hotel next door for the same breakfast selection.  The hot tub was not working but was told that would be fixed soon as well as the new breakfast area.  I want to especially mention Marie at the front desk who made sure we received the best/same military rate we have been getting.  She is relocating to the Quality Inn in Boulder, CO.  I also want to mention Char, the breakfast attendant.  She always has a smile on her face and is most accommodating.  We look forward to seeing her each month.  This past weekend she helped at the hotel next door because of the construction.  She was unfortunately verbally attacked by a guest at this hotel.  It was embarrassing and this guest was completely out of line!  She and another complained because the hot items were not out quickly enough to their liking.  Char and the other attendant were working as quickly as possible and considering they were serving guests of 2 hotels they did an amazing job!  Also, the ones complaining are the ones who...The staff is great.....we stay here every month as my spouse is in the Army Reserves and has drill in Denver each month.  We get a great military rate.  The hotel includes an indoor pool and a good breakfast variety.  The rooms are neat and comfortable.  This past weekend there was construction in the breakfast area, but we were able to go to the hotel next door for the same breakfast selection.  The hot tub was not working but was told that would be fixed soon as well as the new breakfast area.  I want to especially mention Marie at the front desk who made sure we received the best/same military rate we have been getting.  She is relocating to the Quality Inn in Boulder, CO.  I also want to mention Char, the breakfast attendant.  She always has a smile on her face and is most accommodating.  We look forward to seeing her each month.  This past weekend she helped at the hotel next door because of the construction.  She was unfortunately verbally attacked by a guest at this hotel.  It was embarrassing and this guest was completely out of line!  She and another complained because the hot items were not out quickly enough to their liking.  Char and the other attendant were working as quickly as possible and considering they were serving guests of 2 hotels they did an amazing job!  Also, the ones complaining are the ones who would overload their plates, not considering other guests and knowing they could eat as much as they want!  It was horrible and I feel for anyone that has/lhad to deal with these types.  Oh, this one in particular could not even take the time to dress properly....she was in her pajamas!  Char remained polite and calm.  Almost everyone else who saw this immediately went to Char and encouraged her and hugged her.  This is not typical in my experience of the guests at Quality Inn.  This is a great hotel and great price!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1285,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1317,2001 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>217</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>226</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>253</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>254</v>
+      </c>
+      <c r="X28" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s">
+        <v>267</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>268</v>
+      </c>
+      <c r="O29" t="s">
+        <v>226</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>269</v>
+      </c>
+      <c r="X29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>277</v>
+      </c>
+      <c r="O30" t="s">
+        <v>226</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>278</v>
+      </c>
+      <c r="X30" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>286</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>287</v>
+      </c>
+      <c r="X31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_210.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_210.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r586013956-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>33447</t>
+  </si>
+  <si>
+    <t>119991</t>
+  </si>
+  <si>
+    <t>586013956</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>Really enjoyed the stay - Mark, Quevette, and Misty were extremely helpful with any questions i had. Close to great steak house and nepalese restaurant as well as many down the street. Near the mountains and red rocks.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Charlotte D, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded July 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2018</t>
+  </si>
+  <si>
+    <t>Really enjoyed the stay - Mark, Quevette, and Misty were extremely helpful with any questions i had. Close to great steak house and nepalese restaurant as well as many down the street. Near the mountains and red rocks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r585788983-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>585788983</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We were taken here for a room when the Baymont Inn next door couldn't provide us with a first-floor room as I requested on my reservation. This was a great place to stay. The room was immaculate with a microwave, refrigerator, flat screen TV, desk and chair, and also a very comfortable easy chair with a hassock. The furniture was nice and the beds were very comfortable. We would recommend this property to anyone wanting a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We were taken here for a room when the Baymont Inn next door couldn't provide us with a first-floor room as I requested on my reservation. This was a great place to stay. The room was immaculate with a microwave, refrigerator, flat screen TV, desk and chair, and also a very comfortable easy chair with a hassock. The furniture was nice and the beds were very comfortable. We would recommend this property to anyone wanting a pleasant stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r575942474-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
-    <t>33447</t>
-  </si>
-  <si>
-    <t>119991</t>
-  </si>
-  <si>
     <t>575942474</t>
   </si>
   <si>
@@ -204,9 +258,6 @@
     <t>The rooms are dirty!! Lamp shades have stains on them, holes in furniture, remotes are taped together. Drive way entrance was horrible to navigate. Sharing the pool with the hotel next door bc there's was down. Next to the hotel the out of business restaurant had used discarded couches in the lot. Staff seemed to live there and just used the front lobby as there own personal living room. It's sad to say I've had better experience at a motel 6!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>The rooms are dirty!! Lamp shades have stains on them, holes in furniture, remotes are taped together. Drive way entrance was horrible to navigate. Sharing the pool with the hotel next door bc there's was down. Next to the hotel the out of business restaurant had used discarded couches in the lot. Staff seemed to live there and just used the front lobby as there own personal living room. It's sad to say I've had better experience at a motel 6!More</t>
   </si>
   <si>
@@ -225,6 +276,48 @@
     <t>I agree that the front desk people (non-managers) that I spoke to were very friendly, but...It is simplest just to list the problems:  First, I needed a new room apon arrival because my initial room was dirty.  Then, there were several days when housekeeping did not take the old towels, make up the bed, or take out the trash.  I had to have my key rekeyed twice during my stay after making it to my room with my arms full.  The best part was when I needed to manually turn the water off to the toilet because it was about an inch from overflowing.  There was also a stain on the floor.  Their attempt to compensate me for the difficulties were minimal.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r567989100-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>567989100</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>It is a little difficult to get to. All the necessary amenities in the room as expected, though I was not impressed with the four small, lumpy pillows nor the overall lack of attention to detail on cleanliness. I appreciated the day shift front desk clerk's efficiency and welcoming demeanor although it felt like I had to sign too many forms at check in. Rooms were good size, windows open for fresh air and breakfast was decent. There was a bit of a sewage smell in the bathroom off and on the whole time I was there that I meant to mention to them.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>It is a little difficult to get to. All the necessary amenities in the room as expected, though I was not impressed with the four small, lumpy pillows nor the overall lack of attention to detail on cleanliness. I appreciated the day shift front desk clerk's efficiency and welcoming demeanor although it felt like I had to sign too many forms at check in. Rooms were good size, windows open for fresh air and breakfast was decent. There was a bit of a sewage smell in the bathroom off and on the whole time I was there that I meant to mention to them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r566583211-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>566583211</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not the best </t>
+  </si>
+  <si>
+    <t>After having difficulty finding the driveway, we finally made it to the hotel. The front desk clerk was very nice, that's about as positive as I can get. Once we opened the door to our room, a huge waft of old food hit us. It was so strong that we both were nauseas. I walked into the room to see if I could find the problem, but all I found was a bed halfway made with extremely wrinkled sheets and a massive red stain on the floor. We went back downstairs to ask for another room. The clerk was nice about it and understood. Our second room was on the 3rd floor. This one didn't smell, however there was what appeared to be blood smeared on the wall. The shower faucet was broken and the AC didn't work very well. Glad we only spent one night here. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>After having difficulty finding the driveway, we finally made it to the hotel. The front desk clerk was very nice, that's about as positive as I can get. Once we opened the door to our room, a huge waft of old food hit us. It was so strong that we both were nauseas. I walked into the room to see if I could find the problem, but all I found was a bed halfway made with extremely wrinkled sheets and a massive red stain on the floor. We went back downstairs to ask for another room. The clerk was nice about it and understood. Our second room was on the 3rd floor. This one didn't smell, however there was what appeared to be blood smeared on the wall. The shower faucet was broken and the AC didn't work very well. Glad we only spent one night here. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r542523643-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
@@ -243,15 +336,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Charlotte D, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded 6 days ago</t>
-  </si>
-  <si>
-    <t>Responded 6 days ago</t>
-  </si>
-  <si>
     <t>The room is larger than most hotels. Great hot breakfast. Indoor pool and hot tub. The guests at this hotel are allowed to use the fitness room at the adjacent hotel. There are plenty of restaurants nearby including one on either side of the hotel. The hotel staff was very helpful addressing any questions and needs I had. Stephanie, Mark, Charlotte, Quevette and Jean were all very helpful.More</t>
   </si>
   <si>
@@ -300,6 +384,39 @@
     <t>My first floor room was clean &amp; quiet. Toilet did not work; plugged twice during 4 day stay. There is no fitness center; treadmills &amp; bike all broken. Breakfast mostly high fat items.  Neighborhood did not feel safe for walk during darkness. $130+ per night incl tax. "Suites" are just larger rooms, not separate rooms.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r514367389-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>514367389</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Why would you bother to change sheets</t>
+  </si>
+  <si>
+    <t>After a long day I was ready to go to sleep. Imagine my surprise when I pulled a blanket up and found used sheets with woman's hair on it.I was given a new set of sheets and had to change them myself because according to the front desk clerk she didn't have anybody to work in my room and the hotel was "sold out" s they can't move me to other room. Also, while I was changing sheets I found a hole in a mattress created by cigarette. Hotel is claiming non-smoking environment .</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r511561765-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>511561765</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Ideal location, close to everything. Room is nice and clean. Not five star but very comfortable. Interesting perk..windows open to catch the cool Colorado breezes. The breakfast is adequate and coffee is hot and good. Would recommend to anyone. Only downside, the access is a little tricky!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r506317945-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
@@ -358,6 +475,54 @@
   </si>
   <si>
     <t>Great price, staff very nice..  good, fresh breakfast....alittle old in the hot tub pool area but was very relaxing.... Nice and clean...nice big king room with fridge, coffee and microwave.  Alittle tricky to get to... Had to go arround the block...stay in right lane getting off Highway and go straight then turn left..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r500731983-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>500731983</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Avoid!</t>
+  </si>
+  <si>
+    <t>My family and I checked into this hotel after an 11 hour drive from Las Vegas. Upon entering the room, I noticed that the bed closest to the door was broken. The frame was cracked in half and laying on the floor. There was also trash left in the trash can, little hairs on the bathroom floor, cracked toilet seat, and what looked like critter droppings next to the other bed in the room. Thankfully, we were just staying for one night! When we left for dinner, I stopped by the front desk to alert them to the broken bed frame. The woman at the counter asked if I was a prime member and I said yes. She said she would have the manager buy us 1000 extra points for the inconvenience. This was a lie as I only received the standard points for the night. If you are passing through the area, just pass by this hotel. Dirty!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ray A, Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>My family and I checked into this hotel after an 11 hour drive from Las Vegas. Upon entering the room, I noticed that the bed closest to the door was broken. The frame was cracked in half and laying on the floor. There was also trash left in the trash can, little hairs on the bathroom floor, cracked toilet seat, and what looked like critter droppings next to the other bed in the room. Thankfully, we were just staying for one night! When we left for dinner, I stopped by the front desk to alert them to the broken bed frame. The woman at the counter asked if I was a prime member and I said yes. She said she would have the manager buy us 1000 extra points for the inconvenience. This was a lie as I only received the standard points for the night. If you are passing through the area, just pass by this hotel. Dirty!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r499544258-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>499544258</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Unclean</t>
+  </si>
+  <si>
+    <t>Dirty towel left hanging behind the door.  Hopefully that was red lipstick on it.  Corners needed to be vacuumed (gum stuck to floor under bed) and corners in the bathtub and counter needed scrubbed.  Needs an exhaust fan in bathroom, after 4 showers it was very slick with condensation.  I would not recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ray A, Owner at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Dirty towel left hanging behind the door.  Hopefully that was red lipstick on it.  Corners needed to be vacuumed (gum stuck to floor under bed) and corners in the bathtub and counter needed scrubbed.  Needs an exhaust fan in bathroom, after 4 showers it was very slick with condensation.  I would not recommend this place.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r497288397-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
@@ -436,6 +601,54 @@
     <t>I love the Choice chain and have used them for years, but this hotel does not maintain their usual standards.   It starts with the front desk, where in 2 days I never saw an attendant stand up from their chairs.  The hot tub was taped off with police tape.  The room was crappy...shades didn't close all the way, bath tub was filled with hair from prior guests, and the wallpaper had clear burn marks on it.  Asked when breakfast closed and they said 10:30, got their at 9:45..some eggs and sausage were left, but no fruit, no milk for cereal and fridge was empty.  This is probably my 100th+ stay at this chain and it was by far the worst I have experienced. Neighborhood is also a bit scary, local restaurants are shuttered and closed for 'unknown ' reasons and lots of folks just sitting around the parking lot area smoking and drinking.  Just a weird vibe and I would not have felt safe if my kids were with me on this trip.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r483934269-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>483934269</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>They keep us coming back !!</t>
+  </si>
+  <si>
+    <t>The staff are the most courteous, friendly and helpful there are. Anything they could help with was just their way, no matter what.  We even got a free room upgrade without asking. Clean rooms, never any issues. A quaint place always with great rates,  and the perfect location for heading in any direction!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Ray A, Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded May 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2017</t>
+  </si>
+  <si>
+    <t>The staff are the most courteous, friendly and helpful there are. Anything they could help with was just their way, no matter what.  We even got a free room upgrade without asking. Clean rooms, never any issues. A quaint place always with great rates,  and the perfect location for heading in any direction!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r458706636-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>458706636</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>Inside the facility is very clean. Basic place is hard to find since is hidden behind a restaurant that apparently is closed. The outside was completely different... it says no animals allowed yet there was animal poop all over the grass ..... breakfast was basic ... staff is friendly.... MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Inside the facility is very clean. Basic place is hard to find since is hidden behind a restaurant that apparently is closed. The outside was completely different... it says no animals allowed yet there was animal poop all over the grass ..... breakfast was basic ... staff is friendly.... More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r458242126-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
@@ -505,15 +718,57 @@
     <t>This was a nice and quiet place to stay at, even though we did not spend much time besides resting there.  We were there for a weekend conference.  Good free breakfast, but it did get crowded during peak times.  Rooms were clean and quiet.  We did not use the indoor pool, but walking by it, it did smell heavily of chlorine.MoreShow less</t>
   </si>
   <si>
-    <t>Ray A, Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded May 20, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 20, 2017</t>
-  </si>
-  <si>
     <t>This was a nice and quiet place to stay at, even though we did not spend much time besides resting there.  We were there for a weekend conference.  Good free breakfast, but it did get crowded during peak times.  Rooms were clean and quiet.  We did not use the indoor pool, but walking by it, it did smell heavily of chlorine.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r424554113-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>424554113</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Not quite Golden (Co.)</t>
+  </si>
+  <si>
+    <t>The hotel was a bit hard to find in that is west 6th Ave, not 6th Ave. That is, just past 6th Ave., on the west side of 6th Ave. Coming off US 40, it was confusing as we ended up on 6th Ave and had to go west a mile before turning around.but we found it the second time.The hotel is about 6 miles from the historic Golden City center (and Coors!) But, it is also only about 6 miles from downtown Denver which was nice. The Inn was quite nice, very good breakfast, and a bit stingy on towels.Good wi-fi, coffee maker, fridge and microwave in the room. There is a pool and hot tub which we didn't use. Our east side room was bright and sunny.Lots of places to eat within a mile.Great price off the Internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>ScottLeischner, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was a bit hard to find in that is west 6th Ave, not 6th Ave. That is, just past 6th Ave., on the west side of 6th Ave. Coming off US 40, it was confusing as we ended up on 6th Ave and had to go west a mile before turning around.but we found it the second time.The hotel is about 6 miles from the historic Golden City center (and Coors!) But, it is also only about 6 miles from downtown Denver which was nice. The Inn was quite nice, very good breakfast, and a bit stingy on towels.Good wi-fi, coffee maker, fridge and microwave in the room. There is a pool and hot tub which we didn't use. Our east side room was bright and sunny.Lots of places to eat within a mile.Great price off the Internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r421873841-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>421873841</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Average Room</t>
+  </si>
+  <si>
+    <t>We were traveling through the Denver area and stayed here for one night.  The room was clean &amp; comfortable and reasonably priced.  Convenient to local restaurants.  We would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We were traveling through the Denver area and stayed here for one night.  The room was clean &amp; comfortable and reasonably priced.  Convenient to local restaurants.  We would stay here again if in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r411969605-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
@@ -583,6 +838,51 @@
     <t>I was in town for less than 24 hours helping my son move home from college for the summer.  I got this room at no charge with Choice Hotels points.  The room was ready when I arrived and clean.  Breakfast was as expected.  Hotel was reasonably convenient to where I needed to be and very easy to access off a main highway.  It is not a luxury hotel, but an excellent option for a more budget minded traveler.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r369583350-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>369583350</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Sightseeing and Ravens Game</t>
+  </si>
+  <si>
+    <t>Overall this is a budget friendly hotel. The breakfast was excellent and the staff was friendly and helpful. They offer a shuttle to and from locations such as the red rocks amphitheater. The hotel is about 30 minutes from all of the main tourist locations so for me I personally would choose a location closer to Denver. The room was a decent size and the bed was comfortable. The hotel was overall clean. The reason I am giving it 3 stars is because out of the 5 nights we stayed there 2 days in a row housekeeping services was not provided (no new towels etc). The first day we did not think much of it but the second day we spoke with the staff at the front desk who apologized profusely and stated they could send someone in to take care of it but since we were leaving the next day we just asked for towels which they provided. My in laws were in the same hotel and did not have any issues so it may have just been overlooked accidentally. We had a great trip though Colorado is extremely friendly and fun to visit if you don't mind being further from the city this would be a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>ScottLeischner, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Overall this is a budget friendly hotel. The breakfast was excellent and the staff was friendly and helpful. They offer a shuttle to and from locations such as the red rocks amphitheater. The hotel is about 30 minutes from all of the main tourist locations so for me I personally would choose a location closer to Denver. The room was a decent size and the bed was comfortable. The hotel was overall clean. The reason I am giving it 3 stars is because out of the 5 nights we stayed there 2 days in a row housekeeping services was not provided (no new towels etc). The first day we did not think much of it but the second day we spoke with the staff at the front desk who apologized profusely and stated they could send someone in to take care of it but since we were leaving the next day we just asked for towels which they provided. My in laws were in the same hotel and did not have any issues so it may have just been overlooked accidentally. We had a great trip though Colorado is extremely friendly and fun to visit if you don't mind being further from the city this would be a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r366043648-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>366043648</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>great  Time</t>
+  </si>
+  <si>
+    <t>Great  pool  hot tub good  breakfast  clean room  staff  and  service  very nice  affordable  will  stay  there  again   when  the  time  arises  lone star steak house  right  next  door  awesome  food   on bus line   right  outside  door!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great  pool  hot tub good  breakfast  clean room  staff  and  service  very nice  affordable  will  stay  there  again   when  the  time  arises  lone star steak house  right  next  door  awesome  food   on bus line   right  outside  door!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r363040521-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
@@ -599,12 +899,6 @@
   </si>
   <si>
     <t>April 2016</t>
-  </si>
-  <si>
-    <t>ScottLeischner, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded September 15, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 15, 2016</t>
   </si>
   <si>
     <t>Staff was friendly when we checked in and reservation showed 3, we get in the room &amp; there are only 2 towels so I have to go to the front desk to get more towels. The shelf for towels above the toilet was bent and coming away from the wall. The curved sober rod that is supposed to go out was going down and when I tried to move it, it was also coming away from the wall. We pull out the hideaway for the daughter&amp; no sheets. Back to the front desk for sheets. Breakfast was just ok and they ran out of coffee after the staff all got some. Left for the day and when we returned after they cleaned we found they only left 2 towels again, back to the front desk. I'm a gold member,almost platinum&amp;this by far the worst of the choice hotel s I've stayed at. Will probably not stay here again.More</t>
@@ -657,6 +951,48 @@
     <t>We spend a single night after meeting friends downtown while enroute to Breckenridge.  The stay was completely average.....nothing bad and nothing super good to right home about!  Sometimes you just need a place to crash for the night without any fanfare or issues and this QI delivered.  Location was perfect for departure the next morning towards the ski slopes to the west.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r340660669-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>340660669</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Front Desk Staff GREAT</t>
+  </si>
+  <si>
+    <t>The front desk staff was the only reason I didn't give this property a 2.  They were very helpful and extremely courteous. The rooms have been updated, however the cleaning staff is marginal at best.  The room had been vacuumed, but furniture had not been moved as food items were under it.  Upon packing the next morning, I thought a sock of mine had fell on the carpet by one of the beds.... Not my sock.  The room just lacked being a polished clean.  We will try one more time when we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>The front desk staff was the only reason I didn't give this property a 2.  They were very helpful and extremely courteous. The rooms have been updated, however the cleaning staff is marginal at best.  The room had been vacuumed, but furniture had not been moved as food items were under it.  Upon packing the next morning, I thought a sock of mine had fell on the carpet by one of the beds.... Not my sock.  The room just lacked being a polished clean.  We will try one more time when we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r332540709-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>332540709</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Great stay, just a couple things</t>
+  </si>
+  <si>
+    <t>3 day weekend in Denver area for a "green" vacation. I wanted a hotel on the west side of town closest to the mountain scenic byways. Location on highway 6 is perfect and really convenient. I called ahead and the very polite Sabrina helped me out big time...I flew in and landed at 6:30 am. I was so tired and tried to take a nap in the backseat of my rental car in a shopping center lot to little avail. Around 11am, I called the front desk to see if I could possibly be checked in early as I was dead tired, no sleep the night before and no sleep on the plane. She was glad to help me out and said my room was ready as no one was in it the night before. She basically let me in 5 hours early to have a nap and rest up for a night on the town! Breakfast was standard Comfort Inn style spread, only to my delight, they had my FAVORITE, biscuits and gravy! You do not get this often at Comfort Inns. I used the pool and jacuzzi and found it to be very clean. There was very strong flow coming out of the pool "jets", so I could tell the water was being circulated and filtered quite thoroughly (a rarity in hotels). WiFi speed test approached 50 MBit downstream! My only issues: the water pressure was immaculate, but...3 day weekend in Denver area for a "green" vacation. I wanted a hotel on the west side of town closest to the mountain scenic byways. Location on highway 6 is perfect and really convenient. I called ahead and the very polite Sabrina helped me out big time...I flew in and landed at 6:30 am. I was so tired and tried to take a nap in the backseat of my rental car in a shopping center lot to little avail. Around 11am, I called the front desk to see if I could possibly be checked in early as I was dead tired, no sleep the night before and no sleep on the plane. She was glad to help me out and said my room was ready as no one was in it the night before. She basically let me in 5 hours early to have a nap and rest up for a night on the town! Breakfast was standard Comfort Inn style spread, only to my delight, they had my FAVORITE, biscuits and gravy! You do not get this often at Comfort Inns. I used the pool and jacuzzi and found it to be very clean. There was very strong flow coming out of the pool "jets", so I could tell the water was being circulated and filtered quite thoroughly (a rarity in hotels). WiFi speed test approached 50 MBit downstream! My only issues: the water pressure was immaculate, but the hot water was not. It was only luke-warm about 90% of the time, even at 3am when no one is up. Big, big disappointment. The bigger problem: I requested late checkout on my online reservation, and then called the desk the night before to confirm it was in the computer. What do it get? Housekeeping banging on my door every 10 minutes starting at 10:45 am when I was supposed to have until noon. Nothing makes me more mad when there is NO communication between the desk and the maids. My experience overall was so positive that I am only taking away one star for the housekeepers and the luke-warm hot water. I will return next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>3 day weekend in Denver area for a "green" vacation. I wanted a hotel on the west side of town closest to the mountain scenic byways. Location on highway 6 is perfect and really convenient. I called ahead and the very polite Sabrina helped me out big time...I flew in and landed at 6:30 am. I was so tired and tried to take a nap in the backseat of my rental car in a shopping center lot to little avail. Around 11am, I called the front desk to see if I could possibly be checked in early as I was dead tired, no sleep the night before and no sleep on the plane. She was glad to help me out and said my room was ready as no one was in it the night before. She basically let me in 5 hours early to have a nap and rest up for a night on the town! Breakfast was standard Comfort Inn style spread, only to my delight, they had my FAVORITE, biscuits and gravy! You do not get this often at Comfort Inns. I used the pool and jacuzzi and found it to be very clean. There was very strong flow coming out of the pool "jets", so I could tell the water was being circulated and filtered quite thoroughly (a rarity in hotels). WiFi speed test approached 50 MBit downstream! My only issues: the water pressure was immaculate, but...3 day weekend in Denver area for a "green" vacation. I wanted a hotel on the west side of town closest to the mountain scenic byways. Location on highway 6 is perfect and really convenient. I called ahead and the very polite Sabrina helped me out big time...I flew in and landed at 6:30 am. I was so tired and tried to take a nap in the backseat of my rental car in a shopping center lot to little avail. Around 11am, I called the front desk to see if I could possibly be checked in early as I was dead tired, no sleep the night before and no sleep on the plane. She was glad to help me out and said my room was ready as no one was in it the night before. She basically let me in 5 hours early to have a nap and rest up for a night on the town! Breakfast was standard Comfort Inn style spread, only to my delight, they had my FAVORITE, biscuits and gravy! You do not get this often at Comfort Inns. I used the pool and jacuzzi and found it to be very clean. There was very strong flow coming out of the pool "jets", so I could tell the water was being circulated and filtered quite thoroughly (a rarity in hotels). WiFi speed test approached 50 MBit downstream! My only issues: the water pressure was immaculate, but the hot water was not. It was only luke-warm about 90% of the time, even at 3am when no one is up. Big, big disappointment. The bigger problem: I requested late checkout on my online reservation, and then called the desk the night before to confirm it was in the computer. What do it get? Housekeeping banging on my door every 10 minutes starting at 10:45 am when I was supposed to have until noon. Nothing makes me more mad when there is NO communication between the desk and the maids. My experience overall was so positive that I am only taking away one star for the housekeepers and the luke-warm hot water. I will return next year.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r305495476-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
@@ -702,9 +1038,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded July 31, 2015</t>
   </si>
   <si>
@@ -741,6 +1074,57 @@
     <t>The night manager is Very Rude and Inconsideration. They do not respect their guests. The noise level is very high, a very busy highway right outside your room. The rooms are Over Priced for the service you receive.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r272074549-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>272074549</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Under construction but was a good stay</t>
+  </si>
+  <si>
+    <t>When I arrived the front desk people were very friendly. There was some construction going on and it was inconvenient. The rooms were clean. I didn't have any disturbances the two nights I was there, but there was one morning where I woke up early to go somewhere for the day and the construction workers had their music blaring a few doors down. Glad I wasn't trying to sleep in! I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>When I arrived the front desk people were very friendly. There was some construction going on and it was inconvenient. The rooms were clean. I didn't have any disturbances the two nights I was there, but there was one morning where I woke up early to go somewhere for the day and the construction workers had their music blaring a few doors down. Glad I wasn't trying to sleep in! I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r265865990-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>265865990</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>convenient to the Federal Center and Light Rail</t>
+  </si>
+  <si>
+    <t>stayed here because of location to light rail station with easy access to downtown Denver without having to drive and find parking. room was large and very clean.  my only complaint was the room lacked an alarm clock.  notified front desk upon departure.MoreShow less</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>stayed here because of location to light rail station with easy access to downtown Denver without having to drive and find parking. room was large and very clean.  my only complaint was the room lacked an alarm clock.  notified front desk upon departure.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r260458065-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
   </si>
   <si>
@@ -759,12 +1143,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded May 6, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 6, 2015</t>
-  </si>
-  <si>
     <t>My sister and I were at this hotel for a week. Amar,Herman,Stephanie,Brittany and the sweet Young Lady that made breakfast great everyday (sorry I didn't get a chance to get her name) and ALL the House keepers were so wonderful we were in Colorado from different states to see our Mom before she died they made it bearable. Even though the hotel was undergoing minor construction at the time it never interfered or disrupted our stay. Thank y'all again for all you kindness and amazing customer service!!!!!   Sincerely, Tina and TammyMore</t>
   </si>
   <si>
@@ -811,6 +1189,60 @@
   </si>
   <si>
     <t>We booked this hotel online because of vicinity to family. We had a terrible experience there and made a point to bring the problems up to the general manager as well as the owner. We were passed on to head housekeeping to tell her what needed to be done. When you own a business, that is your responsibility and not mine as a guest. They offered us a free room if we are there again. That is not enticing enough to come back. Some of the issues were, when we checked in we were sent to a room that was occupied. When we were going to our next room with the hotel clerk someone exited from a room and the clerk asked "is there someone in room --?". The man he asked was not in a uniform or wearing a name tag. When we were in the room the remote did not work and the man who the clerk spoke to in the hallway was the one who brought the remote to the room. Strange! Also both days we were there the hallways reeked of marijuana. Also there was a large bag of trash at the end of the hallway in the evening by our room and dirty wet towels in the stairwell at night. Both of these were removed when I complained to the night clerk the second evening. Both times we visited the pool there were no clean...We booked this hotel online because of vicinity to family. We had a terrible experience there and made a point to bring the problems up to the general manager as well as the owner. We were passed on to head housekeeping to tell her what needed to be done. When you own a business, that is your responsibility and not mine as a guest. They offered us a free room if we are there again. That is not enticing enough to come back. Some of the issues were, when we checked in we were sent to a room that was occupied. When we were going to our next room with the hotel clerk someone exited from a room and the clerk asked "is there someone in room --?". The man he asked was not in a uniform or wearing a name tag. When we were in the room the remote did not work and the man who the clerk spoke to in the hallway was the one who brought the remote to the room. Strange! Also both days we were there the hallways reeked of marijuana. Also there was a large bag of trash at the end of the hallway in the evening by our room and dirty wet towels in the stairwell at night. Both of these were removed when I complained to the night clerk the second evening. Both times we visited the pool there were no clean towels only a basket of wet used ones. Also the floor in the room was dirty when we came and even after cleaning the second day it was still dirty and housekeeping left cleaning cloths in our room. Very disappointing stay and disappointing conversation with the manager as well as the owner. Most times I would not post on the internet, but it was so bad I thought at least people could feel they had been forewarned about the experience they may have at this establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r246320180-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>246320180</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Has Potential After Rehab</t>
+  </si>
+  <si>
+    <t>This former "something else" is undergoing a renovation.  The outside of the building is complete and the inside is not.  Had we known, we probably would have chosen elsewhere, but other than aesthetics, it did not really impact our stay.  For now it is clean, convenient, inexpensive with a friendly and accomodating staff.  We were surprised and pleased with the comfort of the matress.  I would consider staying here again - I give it a 3.5 for effort!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded December 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2014</t>
+  </si>
+  <si>
+    <t>This former "something else" is undergoing a renovation.  The outside of the building is complete and the inside is not.  Had we known, we probably would have chosen elsewhere, but other than aesthetics, it did not really impact our stay.  For now it is clean, convenient, inexpensive with a friendly and accomodating staff.  We were surprised and pleased with the comfort of the matress.  I would consider staying here again - I give it a 3.5 for effort!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r234797612-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
+  </si>
+  <si>
+    <t>234797612</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>A rose by any other name...</t>
+  </si>
+  <si>
+    <t>Looks and feels like a Comfort Inn with the "quality" name.First room on top floor had strange low rumbling noise!  New room had broken bulb in lamp, the caulk in the tub was starting to show wear, tub drained slow, stopper was broken.Upside good location and comfy bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>William L, General Manager at Quality Inn &amp; Suites Golden - Denver West - Federal Center, responded to this reviewResponded October 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2014</t>
+  </si>
+  <si>
+    <t>Looks and feels like a Comfort Inn with the "quality" name.First room on top floor had strange low rumbling noise!  New room had broken bulb in lamp, the caulk in the tub was starting to show wear, tub drained slow, stopper was broken.Upside good location and comfy bed.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33447-d119991-r224143569-Quality_Inn_Suites_Golden_Denver_West_Federal_Center-Golden_Colorado.html</t>
@@ -1426,7 +1858,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1434,17 +1866,15 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1493,25 +1923,25 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1523,7 +1953,7 @@
         <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1539,7 +1969,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1548,39 +1978,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1596,7 +2036,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1605,47 +2045,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1661,7 +2103,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1670,44 +2112,36 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s">
         <v>85</v>
@@ -1753,31 +2187,31 @@
         <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>3</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1793,7 +2227,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1802,43 +2236,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>97</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" t="s">
+        <v>55</v>
+      </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1854,7 +2288,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1863,49 +2297,47 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>103</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>104</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>105</v>
       </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
         <v>106</v>
-      </c>
-      <c r="X9" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1921,7 +2353,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1930,37 +2362,45 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
         <v>110</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>111</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>112</v>
       </c>
-      <c r="L10" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>99</v>
-      </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
       <c r="Y10" t="s">
         <v>113</v>
       </c>
@@ -2005,25 +2445,31 @@
         <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="X11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" t="s">
         <v>121</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2039,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2048,41 +2494,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
         <v>124</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>125</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>126</v>
-      </c>
-      <c r="L12" t="s">
-        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -2098,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2107,25 +2551,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
         <v>130</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>131</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>132</v>
       </c>
-      <c r="L13" t="s">
-        <v>133</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2136,14 +2580,10 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>135</v>
-      </c>
-      <c r="X13" t="s">
-        <v>136</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -2159,7 +2599,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2168,47 +2608,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>144</v>
-      </c>
-      <c r="X14" t="s">
-        <v>145</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -2224,7 +2660,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2233,47 +2669,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="X15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -2289,7 +2727,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2298,22 +2736,26 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2323,14 +2765,10 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>161</v>
-      </c>
-      <c r="X16" t="s">
-        <v>162</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -2346,7 +2784,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2355,31 +2793,31 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -2389,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -2411,7 +2849,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2420,47 +2858,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -2476,7 +2910,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2485,47 +2919,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -2541,7 +2971,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2550,49 +2980,41 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>193</v>
-      </c>
-      <c r="X20" t="s">
-        <v>194</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
@@ -2608,7 +3030,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2617,49 +3039,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>92</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="X21" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -2675,7 +3091,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2684,49 +3100,45 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>3</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="X22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
@@ -2742,7 +3154,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2751,47 +3163,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
@@ -2807,7 +3215,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2816,43 +3224,47 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s">
-        <v>226</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="X24" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
@@ -2868,7 +3280,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2877,49 +3289,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
@@ -2935,7 +3345,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2944,26 +3354,22 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>244</v>
-      </c>
-      <c r="O26" t="s">
-        <v>75</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -2974,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
@@ -2996,7 +3402,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3005,47 +3411,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3061,7 +3469,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3070,49 +3478,47 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
         <v>1</v>
       </c>
-      <c r="N28" t="s">
-        <v>253</v>
-      </c>
-      <c r="O28" t="s">
-        <v>75</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="X28" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="Y28" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -3128,7 +3534,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3137,49 +3543,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s">
-        <v>226</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="X29" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
@@ -3195,7 +3599,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3204,43 +3608,47 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="X30" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -3256,7 +3664,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3265,38 +3673,32 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3305,13 +3707,1307 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>263</v>
+      </c>
+      <c r="X31" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
         <v>287</v>
       </c>
-      <c r="X31" t="s">
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>288</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="J34" t="s">
         <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>278</v>
+      </c>
+      <c r="X34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>299</v>
+      </c>
+      <c r="O35" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>300</v>
+      </c>
+      <c r="X35" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s">
+        <v>307</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>299</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>300</v>
+      </c>
+      <c r="X36" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>300</v>
+      </c>
+      <c r="X37" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>317</v>
+      </c>
+      <c r="J38" t="s">
+        <v>318</v>
+      </c>
+      <c r="K38" t="s">
+        <v>319</v>
+      </c>
+      <c r="L38" t="s">
+        <v>320</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>321</v>
+      </c>
+      <c r="O38" t="s">
+        <v>120</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>300</v>
+      </c>
+      <c r="X38" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>329</v>
+      </c>
+      <c r="X39" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" t="s">
+        <v>334</v>
+      </c>
+      <c r="K40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>337</v>
+      </c>
+      <c r="O40" t="s">
+        <v>98</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>338</v>
+      </c>
+      <c r="X40" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>342</v>
+      </c>
+      <c r="J41" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>346</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>347</v>
+      </c>
+      <c r="X41" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>355</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>356</v>
+      </c>
+      <c r="X42" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>360</v>
+      </c>
+      <c r="J43" t="s">
+        <v>361</v>
+      </c>
+      <c r="K43" t="s">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s">
+        <v>363</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>355</v>
+      </c>
+      <c r="O43" t="s">
+        <v>120</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>364</v>
+      </c>
+      <c r="X43" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>368</v>
+      </c>
+      <c r="J44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K44" t="s">
+        <v>370</v>
+      </c>
+      <c r="L44" t="s">
+        <v>371</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>372</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>364</v>
+      </c>
+      <c r="X44" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>375</v>
+      </c>
+      <c r="J45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s">
+        <v>377</v>
+      </c>
+      <c r="L45" t="s">
+        <v>378</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>379</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>380</v>
+      </c>
+      <c r="X45" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>383</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>384</v>
+      </c>
+      <c r="J46" t="s">
+        <v>385</v>
+      </c>
+      <c r="K46" t="s">
+        <v>386</v>
+      </c>
+      <c r="L46" t="s">
+        <v>387</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>379</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>380</v>
+      </c>
+      <c r="X46" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>390</v>
+      </c>
+      <c r="J47" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" t="s">
+        <v>392</v>
+      </c>
+      <c r="L47" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>394</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>395</v>
+      </c>
+      <c r="X47" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>398</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>399</v>
+      </c>
+      <c r="J48" t="s">
+        <v>400</v>
+      </c>
+      <c r="K48" t="s">
+        <v>401</v>
+      </c>
+      <c r="L48" t="s">
+        <v>402</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>403</v>
+      </c>
+      <c r="O48" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>404</v>
+      </c>
+      <c r="X48" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>407</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>408</v>
+      </c>
+      <c r="J49" t="s">
+        <v>409</v>
+      </c>
+      <c r="K49" t="s">
+        <v>410</v>
+      </c>
+      <c r="L49" t="s">
+        <v>411</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>412</v>
+      </c>
+      <c r="O49" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>413</v>
+      </c>
+      <c r="X49" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>416</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>417</v>
+      </c>
+      <c r="J50" t="s">
+        <v>418</v>
+      </c>
+      <c r="K50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L50" t="s">
+        <v>420</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>421</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>422</v>
+      </c>
+      <c r="X50" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>426</v>
+      </c>
+      <c r="J51" t="s">
+        <v>427</v>
+      </c>
+      <c r="K51" t="s">
+        <v>428</v>
+      </c>
+      <c r="L51" t="s">
+        <v>429</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>430</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>431</v>
+      </c>
+      <c r="X51" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
